--- a/result_excel/Space_15_DLinear_custom_ftS_sl60_ll30_pl30_dm256_nh8_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0results.xlsx
+++ b/result_excel/Space_15_DLinear_custom_ftS_sl60_ll30_pl30_dm256_nh8_el2_dl1_df2048_fc1_ebtimeF_dtTrue_Exp_0results.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>132.8285064697266</v>
+        <v>146.0054321289062</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>134.8114471435547</v>
+        <v>146.6871185302734</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>135.9374389648438</v>
+        <v>147.07421875</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>135.3943481445312</v>
+        <v>146.8875122070312</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>134.8001098632812</v>
+        <v>146.6832122802734</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>135.7774505615234</v>
+        <v>147.0192108154297</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>136.2597503662109</v>
+        <v>147.1850128173828</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>136.0753631591797</v>
+        <v>147.1216278076172</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>136.1460266113281</v>
+        <v>147.1459197998047</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>135.0783843994141</v>
+        <v>146.7788848876953</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>135.1834716796875</v>
+        <v>146.8150177001953</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>136.0907135009766</v>
+        <v>147.1269073486328</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>136.5012817382812</v>
+        <v>147.2680511474609</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>137.0154876708984</v>
+        <v>147.44482421875</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>137.7234649658203</v>
+        <v>147.6882171630859</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>138.278564453125</v>
+        <v>147.8790435791016</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>139.1675109863281</v>
+        <v>148.1846466064453</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>138.8475341796875</v>
+        <v>148.0746459960938</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>137.9657592773438</v>
+        <v>147.7714996337891</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>138.3959197998047</v>
+        <v>147.9193878173828</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>138.0384216308594</v>
+        <v>147.7964782714844</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>138.1592102050781</v>
+        <v>147.8380126953125</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>137.3875427246094</v>
+        <v>147.5727233886719</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>137.4087829589844</v>
+        <v>147.5800323486328</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>137.5673217773438</v>
+        <v>147.6345367431641</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>138.5936279296875</v>
+        <v>147.9873504638672</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>136.0586547851562</v>
+        <v>147.1158752441406</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>136.2223663330078</v>
+        <v>147.1721649169922</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>135.2559967041016</v>
+        <v>146.8399505615234</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>135.3909759521484</v>
+        <v>146.8863525390625</v>
       </c>
     </row>
   </sheetData>
